--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_191__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_191__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,175 +5417,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>5.141091346740723</c:v>
+                  <c:v>5.141094207763672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.75265693664551</c:v>
+                  <c:v>16.75262451171875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.363132953643799</c:v>
+                  <c:v>-2.363159418106079</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.90254211425781</c:v>
+                  <c:v>86.90255737304688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.26774597167969</c:v>
+                  <c:v>92.26775360107422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.00012969970703</c:v>
+                  <c:v>68.00011444091797</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.504621148109436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.861064314842224</c:v>
+                  <c:v>1.861052513122559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.70943450927734</c:v>
+                  <c:v>88.70944213867188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.051851987838745</c:v>
+                  <c:v>2.05184006690979</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>91.55166625976562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.344470024108887</c:v>
+                  <c:v>6.344475746154785</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.356365442276001</c:v>
+                  <c:v>3.356359481811523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.07841110229492</c:v>
+                  <c:v>37.07838821411133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92.12764739990234</c:v>
+                  <c:v>92.12767028808594</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.9415283203125</c:v>
+                  <c:v>78.94151306152344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>71.48255920410156</c:v>
+                  <c:v>71.48257446289062</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87.10151672363281</c:v>
+                  <c:v>87.10150909423828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8685269355773926</c:v>
+                  <c:v>0.8685092329978943</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>85.49838256835938</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.48922729492188</c:v>
+                  <c:v>75.48928070068359</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.38295745849609</c:v>
+                  <c:v>79.38294982910156</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.331879854202271</c:v>
+                  <c:v>-2.331891775131226</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.419734358787537</c:v>
+                  <c:v>1.419722557067871</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.463687419891357</c:v>
+                  <c:v>4.463705539703369</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.5527037382125854</c:v>
+                  <c:v>-0.5526919960975647</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.450021147727966</c:v>
+                  <c:v>1.450044751167297</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.628962993621826</c:v>
+                  <c:v>2.628974914550781</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83.46092987060547</c:v>
+                  <c:v>83.46091461181641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1908052712678909</c:v>
+                  <c:v>0.1908170580863953</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.60953521728516</c:v>
+                  <c:v>92.60954284667969</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83.56307983398438</c:v>
+                  <c:v>83.56307220458984</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.547379612922668</c:v>
+                  <c:v>1.547367930412292</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>88.15177917480469</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.6040812134742737</c:v>
+                  <c:v>-0.6040753126144409</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.43297576904297</c:v>
+                  <c:v>91.4329833984375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.756580829620361</c:v>
+                  <c:v>5.756583690643311</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>86.94017791748047</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>82.64047241210938</c:v>
+                  <c:v>82.64045715332031</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>79.66514587402344</c:v>
+                  <c:v>79.66513824462891</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.23202514648438</c:v>
+                  <c:v>93.23203277587891</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.08689569681882858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>90.07872009277344</c:v>
+                  <c:v>90.07871246337891</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>87.19658660888672</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1614374816417694</c:v>
+                  <c:v>0.1614492535591125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.334955215454102</c:v>
+                  <c:v>2.334966897964478</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>93.01287841796875</c:v>
+                  <c:v>93.01287078857422</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.973719596862793</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.06296443939209</c:v>
+                  <c:v>3.062970161437988</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.78807067871094</c:v>
+                  <c:v>94.78806304931641</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>86.9031982421875</c:v>
+                  <c:v>86.90320587158203</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.672926425933838</c:v>
+                  <c:v>-4.672938346862793</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92.91925048828125</c:v>
+                  <c:v>92.91925811767578</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>82.80173492431641</c:v>
+                  <c:v>82.80175018310547</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>91.79528045654297</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.1285467147827148</c:v>
+                  <c:v>-0.1285349428653717</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>95.29201507568359</c:v>
+                  <c:v>95.29199981689453</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>91.29358673095703</c:v>
@@ -5594,31 +5594,31 @@
                   <c:v>0.7823970913887024</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.71170806884766</c:v>
+                  <c:v>92.71170043945312</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.439601421356201</c:v>
+                  <c:v>4.439610004425049</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.162325859069824</c:v>
+                  <c:v>3.162331819534302</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.58010482788086</c:v>
+                  <c:v>31.58016395568848</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9763895273208618</c:v>
+                  <c:v>0.9763954281806946</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.20893096923828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.578339576721191</c:v>
+                  <c:v>-2.578345537185669</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42.16278839111328</c:v>
+                  <c:v>42.16269683837891</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.325733780860901</c:v>
+                  <c:v>1.325739622116089</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>94.21702575683594</c:v>
@@ -5627,7 +5627,7 @@
                   <c:v>95.40980529785156</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>93.12687683105469</c:v>
+                  <c:v>93.12689208984375</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>86.44489288330078</c:v>
@@ -5636,55 +5636,55 @@
                   <c:v>95.92240142822266</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.471241354942322</c:v>
+                  <c:v>1.471253156661987</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>95.13658142089844</c:v>
+                  <c:v>95.13658905029297</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94.91585540771484</c:v>
+                  <c:v>94.91587066650391</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>84.36716461181641</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>88.90675354003906</c:v>
+                  <c:v>88.90676879882812</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8849399089813232</c:v>
+                  <c:v>0.8849575519561768</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23.44108390808105</c:v>
+                  <c:v>23.44118690490723</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93.64234924316406</c:v>
+                  <c:v>93.64237213134766</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>55.47523880004883</c:v>
+                  <c:v>55.47526168823242</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.502170324325562</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.447715044021606</c:v>
+                  <c:v>3.447720766067505</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>92.28204345703125</c:v>
+                  <c:v>92.28205108642578</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-3.167177438735962</c:v>
+                  <c:v>-3.167180299758911</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>41.87288284301758</c:v>
+                  <c:v>41.87285995483398</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>92.93356323242188</c:v>
+                  <c:v>92.93355560302734</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.078608274459839</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90.11852264404297</c:v>
+                  <c:v>90.11853790283203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.141091346740723</v>
+        <v>5.141094207763672</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.75265693664551</v>
+        <v>16.75262451171875</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>-2.363132953643799</v>
+        <v>-2.363159418106079</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>86.90254211425781</v>
+        <v>86.90255737304688</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>92.26774597167969</v>
+        <v>92.26775360107422</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>68.00012969970703</v>
+        <v>68.00011444091797</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.861064314842224</v>
+        <v>1.861052513122559</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>88.70943450927734</v>
+        <v>88.70944213867188</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.051851987838745</v>
+        <v>2.05184006690979</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.344470024108887</v>
+        <v>6.344475746154785</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.356365442276001</v>
+        <v>3.356359481811523</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>37.07841110229492</v>
+        <v>37.07838821411133</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>92.12764739990234</v>
+        <v>92.12767028808594</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>78.9415283203125</v>
+        <v>78.94151306152344</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>71.48255920410156</v>
+        <v>71.48257446289062</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>87.10151672363281</v>
+        <v>87.10150909423828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8685269355773926</v>
+        <v>0.8685092329978943</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>75.48922729492188</v>
+        <v>75.48928070068359</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>79.38295745849609</v>
+        <v>79.38294982910156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-2.331879854202271</v>
+        <v>-2.331891775131226</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.419734358787537</v>
+        <v>1.419722557067871</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4.463687419891357</v>
+        <v>4.463705539703369</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.5527037382125854</v>
+        <v>-0.5526919960975647</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.450021147727966</v>
+        <v>1.450044751167297</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.628962993621826</v>
+        <v>2.628974914550781</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>83.46092987060547</v>
+        <v>83.46091461181641</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.1908052712678909</v>
+        <v>0.1908170580863953</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>92.60953521728516</v>
+        <v>92.60954284667969</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>83.56307983398438</v>
+        <v>83.56307220458984</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.547379612922668</v>
+        <v>1.547367930412292</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.6040812134742737</v>
+        <v>-0.6040753126144409</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>91.43297576904297</v>
+        <v>91.4329833984375</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>5.756580829620361</v>
+        <v>5.756583690643311</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>82.64047241210938</v>
+        <v>82.64045715332031</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>79.66514587402344</v>
+        <v>79.66513824462891</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>93.23202514648438</v>
+        <v>93.23203277587891</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>90.07872009277344</v>
+        <v>90.07871246337891</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.1614374816417694</v>
+        <v>0.1614492535591125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.334955215454102</v>
+        <v>2.334966897964478</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>93.01287841796875</v>
+        <v>93.01287078857422</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>3.06296443939209</v>
+        <v>3.062970161437988</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>94.78807067871094</v>
+        <v>94.78806304931641</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>86.9031982421875</v>
+        <v>86.90320587158203</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-4.672926425933838</v>
+        <v>-4.672938346862793</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>92.91925048828125</v>
+        <v>92.91925811767578</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>82.80173492431641</v>
+        <v>82.80175018310547</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.1285467147827148</v>
+        <v>-0.1285349428653717</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>95.29201507568359</v>
+        <v>95.29199981689453</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>92.71170806884766</v>
+        <v>92.71170043945312</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>4.439601421356201</v>
+        <v>4.439610004425049</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>3.162325859069824</v>
+        <v>3.162331819534302</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>31.58010482788086</v>
+        <v>31.58016395568848</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.9763895273208618</v>
+        <v>0.9763954281806946</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-2.578339576721191</v>
+        <v>-2.578345537185669</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>42.16278839111328</v>
+        <v>42.16269683837891</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.325733780860901</v>
+        <v>1.325739622116089</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>93.12687683105469</v>
+        <v>93.12689208984375</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.471241354942322</v>
+        <v>1.471253156661987</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>95.13658142089844</v>
+        <v>95.13658905029297</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>94.91585540771484</v>
+        <v>94.91587066650391</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>88.90675354003906</v>
+        <v>88.90676879882812</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.8849399089813232</v>
+        <v>0.8849575519561768</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>23.44108390808105</v>
+        <v>23.44118690490723</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>93.64234924316406</v>
+        <v>93.64237213134766</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>55.47523880004883</v>
+        <v>55.47526168823242</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>3.447715044021606</v>
+        <v>3.447720766067505</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>92.28204345703125</v>
+        <v>92.28205108642578</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-3.167177438735962</v>
+        <v>-3.167180299758911</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>41.87288284301758</v>
+        <v>41.87285995483398</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>92.93356323242188</v>
+        <v>92.93355560302734</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>90.11852264404297</v>
+        <v>90.11853790283203</v>
       </c>
     </row>
     <row r="92" spans="1:6">
